--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W5_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W5_H50_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5015105740181269</v>
+        <v>0.4712990936555891</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09476679868761342</v>
+        <v>0.09074550162777696</v>
       </c>
       <c r="J2" t="n">
-        <v>1231.630401551429</v>
+        <v>1197.687574591001</v>
       </c>
       <c r="K2" t="n">
-        <v>1994387.429568684</v>
+        <v>1929524.869632291</v>
       </c>
       <c r="L2" t="n">
-        <v>1412.22782495201</v>
+        <v>1389.073385258061</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6271624107596799</v>
+        <v>0.6392880389701778</v>
       </c>
     </row>
   </sheetData>
